--- a/Code/Results/Cases/Case_8_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.79448492639325</v>
+        <v>11.64118669411309</v>
       </c>
       <c r="C2">
-        <v>7.986566948287067</v>
+        <v>8.403753363942654</v>
       </c>
       <c r="D2">
-        <v>5.140163239475881</v>
+        <v>5.117731686683698</v>
       </c>
       <c r="E2">
-        <v>15.83404434126686</v>
+        <v>15.99373269230949</v>
       </c>
       <c r="F2">
-        <v>19.04575923848085</v>
+        <v>18.30788454555396</v>
       </c>
       <c r="G2">
-        <v>2.096472930060568</v>
+        <v>3.383547765820847</v>
       </c>
       <c r="H2">
-        <v>1.682808044530779</v>
+        <v>1.771137206896742</v>
       </c>
       <c r="I2">
-        <v>2.478903134853269</v>
+        <v>2.633821515233407</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.42811838744124</v>
+        <v>13.73775150469542</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.9464588175651</v>
       </c>
       <c r="M2">
-        <v>11.01507139718891</v>
+        <v>8.405445808582829</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.34266982827219</v>
+        <v>11.11958572066053</v>
       </c>
       <c r="P2">
-        <v>12.62841829925588</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.57116671901255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.36380536312543</v>
+      </c>
+      <c r="R2">
+        <v>12.41473380660623</v>
+      </c>
+      <c r="S2">
+        <v>14.90431411827309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.0503326825568</v>
+        <v>10.95718295218638</v>
       </c>
       <c r="C3">
-        <v>7.571689721867101</v>
+        <v>7.920993960608549</v>
       </c>
       <c r="D3">
-        <v>4.961008700922733</v>
+        <v>4.911215508826046</v>
       </c>
       <c r="E3">
-        <v>14.95100777943914</v>
+        <v>15.13856108076778</v>
       </c>
       <c r="F3">
-        <v>18.6571954730094</v>
+        <v>17.92877351457182</v>
       </c>
       <c r="G3">
-        <v>2.099874831536409</v>
+        <v>3.833020245890389</v>
       </c>
       <c r="H3">
-        <v>1.631869193040748</v>
+        <v>1.591446430419167</v>
       </c>
       <c r="I3">
-        <v>2.616033561097136</v>
+        <v>2.523906808777616</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.44503704811758</v>
+        <v>13.76388106831106</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.07164649146357</v>
       </c>
       <c r="M3">
-        <v>10.40969868044627</v>
+        <v>8.332115141876919</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.55419988712075</v>
+        <v>10.53368774989656</v>
       </c>
       <c r="P3">
-        <v>12.76360070976675</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.45696598628621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.57850365744819</v>
+      </c>
+      <c r="R3">
+        <v>12.53289663078679</v>
+      </c>
+      <c r="S3">
+        <v>14.78902750686222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.56432344854746</v>
+        <v>10.51079320445043</v>
       </c>
       <c r="C4">
-        <v>7.307811576203846</v>
+        <v>7.613666178056372</v>
       </c>
       <c r="D4">
-        <v>4.847090772945219</v>
+        <v>4.779586196281154</v>
       </c>
       <c r="E4">
-        <v>14.38096368790127</v>
+        <v>14.58759145038822</v>
       </c>
       <c r="F4">
-        <v>18.42209037355774</v>
+        <v>17.69638549980338</v>
       </c>
       <c r="G4">
-        <v>2.102036489907103</v>
+        <v>4.118771070410197</v>
       </c>
       <c r="H4">
-        <v>1.757094842294588</v>
+        <v>1.646287397538124</v>
       </c>
       <c r="I4">
-        <v>2.70432356103688</v>
+        <v>2.495259094591907</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.45873367663062</v>
+        <v>13.78140681065695</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.14975962452028</v>
       </c>
       <c r="M4">
-        <v>10.01857247198742</v>
+        <v>8.305190386725862</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.04638400637402</v>
+        <v>10.15569511591143</v>
       </c>
       <c r="P4">
-        <v>12.84799133080485</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.39157152120193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.0726160062626</v>
+      </c>
+      <c r="R4">
+        <v>12.60674979236551</v>
+      </c>
+      <c r="S4">
+        <v>14.72054898565084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.35391927472638</v>
+        <v>10.31734898728457</v>
       </c>
       <c r="C5">
-        <v>7.205475534266474</v>
+        <v>7.493494231257625</v>
       </c>
       <c r="D5">
-        <v>4.800891359618523</v>
+        <v>4.725998390470272</v>
       </c>
       <c r="E5">
-        <v>14.14155619163106</v>
+        <v>14.35650227960248</v>
       </c>
       <c r="F5">
-        <v>18.32071145657198</v>
+        <v>17.59521555050715</v>
       </c>
       <c r="G5">
-        <v>2.102941822276506</v>
+        <v>4.238505755412076</v>
       </c>
       <c r="H5">
-        <v>1.809434920684349</v>
+        <v>1.69535229927833</v>
       </c>
       <c r="I5">
-        <v>2.744395980156125</v>
+        <v>2.529608249635794</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.46027083913332</v>
+        <v>13.78410498473171</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.17750166665692</v>
       </c>
       <c r="M5">
-        <v>9.85414697136744</v>
+        <v>8.29603920679002</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.83348475133217</v>
+        <v>9.996958933027758</v>
       </c>
       <c r="P5">
-        <v>12.88218808326563</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.36133058746737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.86050546598926</v>
+      </c>
+      <c r="R5">
+        <v>12.63669427235098</v>
+      </c>
+      <c r="S5">
+        <v>14.68837091524875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.31238274036948</v>
+        <v>10.2788145034723</v>
       </c>
       <c r="C6">
-        <v>7.19747145776124</v>
+        <v>7.482844584763315</v>
       </c>
       <c r="D6">
-        <v>4.794605109667287</v>
+        <v>4.718533670695162</v>
       </c>
       <c r="E6">
-        <v>14.10114871678132</v>
+        <v>14.31753711904605</v>
       </c>
       <c r="F6">
-        <v>18.2959360729209</v>
+        <v>17.57028678163183</v>
       </c>
       <c r="G6">
-        <v>2.103100420030906</v>
+        <v>4.259514434915588</v>
       </c>
       <c r="H6">
-        <v>1.818387473729634</v>
+        <v>1.703736800603396</v>
       </c>
       <c r="I6">
-        <v>2.755058790860225</v>
+        <v>2.540148135130722</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.45464103002456</v>
+        <v>13.77870679202734</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.17675209628722</v>
       </c>
       <c r="M6">
-        <v>9.826285001466948</v>
+        <v>8.29138157363179</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.79762825722059</v>
+        <v>9.97009013022876</v>
       </c>
       <c r="P6">
-        <v>12.88721751584401</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.35054904427041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.82478427768125</v>
+      </c>
+      <c r="R6">
+        <v>12.64109953193465</v>
+      </c>
+      <c r="S6">
+        <v>14.67713409927841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.54507833253474</v>
+        <v>10.48345355004649</v>
       </c>
       <c r="C7">
-        <v>7.33091462054774</v>
+        <v>7.616838853951144</v>
       </c>
       <c r="D7">
-        <v>4.850378776306989</v>
+        <v>4.791017601335671</v>
       </c>
       <c r="E7">
-        <v>14.3771308296912</v>
+        <v>14.58832657481578</v>
       </c>
       <c r="F7">
-        <v>18.3990169830708</v>
+        <v>17.62997100957435</v>
       </c>
       <c r="G7">
-        <v>2.102067774263846</v>
+        <v>4.180525387442016</v>
       </c>
       <c r="H7">
-        <v>1.758310214322137</v>
+        <v>1.648307263174853</v>
       </c>
       <c r="I7">
-        <v>2.715309096202479</v>
+        <v>2.509617736849953</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.44256250855119</v>
+        <v>13.74679616896623</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.11923973558823</v>
       </c>
       <c r="M7">
-        <v>10.01565069258416</v>
+        <v>8.283723741117223</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.0431170694893</v>
+        <v>10.14059640212753</v>
       </c>
       <c r="P7">
-        <v>12.84666621526767</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.37528875682608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.06305926506489</v>
+      </c>
+      <c r="R7">
+        <v>12.60343859454287</v>
+      </c>
+      <c r="S7">
+        <v>14.6727178945637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.52378711966799</v>
+        <v>11.36422724028151</v>
       </c>
       <c r="C8">
-        <v>7.875937336335594</v>
+        <v>8.206718678036831</v>
       </c>
       <c r="D8">
-        <v>5.084246891596001</v>
+        <v>5.078863444351787</v>
       </c>
       <c r="E8">
-        <v>15.53465873862514</v>
+        <v>15.71751693449303</v>
       </c>
       <c r="F8">
-        <v>18.88316233595161</v>
+        <v>18.0104024826943</v>
       </c>
       <c r="G8">
-        <v>2.097654794763321</v>
+        <v>3.880065609063785</v>
       </c>
       <c r="H8">
-        <v>1.616948044874324</v>
+        <v>1.706731017396459</v>
       </c>
       <c r="I8">
-        <v>2.538812450493859</v>
+        <v>2.596901663750914</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.41193559976524</v>
+        <v>13.66479242879166</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.9220271763787</v>
       </c>
       <c r="M8">
-        <v>10.8095136123501</v>
+        <v>8.318716359818849</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.07527233181561</v>
+        <v>10.88202703342107</v>
       </c>
       <c r="P8">
-        <v>12.67259424680848</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.5100786410644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.07794228931994</v>
+      </c>
+      <c r="R8">
+        <v>12.44747134203064</v>
+      </c>
+      <c r="S8">
+        <v>14.74131502746566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.23879457699539</v>
+        <v>12.93904184689212</v>
       </c>
       <c r="C9">
-        <v>8.830502430962682</v>
+        <v>9.308104238509303</v>
       </c>
       <c r="D9">
-        <v>5.503901985078843</v>
+        <v>5.566592968424628</v>
       </c>
       <c r="E9">
-        <v>17.58159477074691</v>
+        <v>17.70694624590623</v>
       </c>
       <c r="F9">
-        <v>19.89338954966195</v>
+        <v>18.95190576476761</v>
       </c>
       <c r="G9">
-        <v>2.089535420170582</v>
+        <v>2.984319269829119</v>
       </c>
       <c r="H9">
-        <v>2.072325347397015</v>
+        <v>2.13233584173014</v>
       </c>
       <c r="I9">
-        <v>2.740159498100875</v>
+        <v>2.856414695316863</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.40793603822589</v>
+        <v>13.61202830619034</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.62809412294738</v>
       </c>
       <c r="M9">
-        <v>12.21114072794365</v>
+        <v>8.590193984040313</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.9078067509499</v>
+        <v>12.23465514124351</v>
       </c>
       <c r="P9">
-        <v>12.34459761298411</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.84034605714482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.89948039378785</v>
+      </c>
+      <c r="R9">
+        <v>12.16168375948443</v>
+      </c>
+      <c r="S9">
+        <v>15.03670470631964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.35639144148016</v>
+        <v>13.9301469093717</v>
       </c>
       <c r="C10">
-        <v>9.478914093407312</v>
+        <v>9.950945576275892</v>
       </c>
       <c r="D10">
-        <v>5.811728162636925</v>
+        <v>5.961012139228976</v>
       </c>
       <c r="E10">
-        <v>18.40501102601607</v>
+        <v>18.51847603257984</v>
       </c>
       <c r="F10">
-        <v>20.5370841960605</v>
+        <v>19.31612132327795</v>
       </c>
       <c r="G10">
-        <v>2.084019067114181</v>
+        <v>4.045854514796543</v>
       </c>
       <c r="H10">
-        <v>2.3658391330067</v>
+        <v>2.400982241989324</v>
       </c>
       <c r="I10">
-        <v>2.959056564694546</v>
+        <v>3.031748161543836</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.36220526856455</v>
+        <v>13.42673956322519</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.31325960537857</v>
       </c>
       <c r="M10">
-        <v>13.13975656519998</v>
+        <v>8.733017253572571</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.85501545978115</v>
+        <v>13.07447968992218</v>
       </c>
       <c r="P10">
-        <v>12.10443147965486</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.02497476502427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.80942585979659</v>
+      </c>
+      <c r="R10">
+        <v>11.95098597099115</v>
+      </c>
+      <c r="S10">
+        <v>15.0201973842366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.84883192014338</v>
+        <v>14.33788711521182</v>
       </c>
       <c r="C11">
-        <v>9.655335849857902</v>
+        <v>9.907653160321409</v>
       </c>
       <c r="D11">
-        <v>6.116427354308522</v>
+        <v>6.375666432376631</v>
       </c>
       <c r="E11">
-        <v>14.22038816473705</v>
+        <v>14.37484125758064</v>
       </c>
       <c r="F11">
-        <v>19.95594524005868</v>
+        <v>18.28596346304061</v>
       </c>
       <c r="G11">
-        <v>2.082499762820696</v>
+        <v>7.920728789751423</v>
       </c>
       <c r="H11">
-        <v>3.080496019396126</v>
+        <v>3.096397232794386</v>
       </c>
       <c r="I11">
-        <v>3.027434311328141</v>
+        <v>3.080441438021127</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.86364035406754</v>
+        <v>12.77364106093132</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.80707108364204</v>
       </c>
       <c r="M11">
-        <v>13.51074932358214</v>
+        <v>8.293948772574964</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.89085150985354</v>
+        <v>13.31314813822834</v>
       </c>
       <c r="P11">
-        <v>11.97317893430034</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.44550290297056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.78147276435172</v>
+      </c>
+      <c r="R11">
+        <v>11.87356003712365</v>
+      </c>
+      <c r="S11">
+        <v>14.12119999966679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.05900332726282</v>
+        <v>14.52579547560092</v>
       </c>
       <c r="C12">
-        <v>9.642846078380403</v>
+        <v>9.769562795143043</v>
       </c>
       <c r="D12">
-        <v>6.308858508050393</v>
+        <v>6.618741423842484</v>
       </c>
       <c r="E12">
-        <v>10.72307196934052</v>
+        <v>10.89363036290226</v>
       </c>
       <c r="F12">
-        <v>19.34485578405018</v>
+        <v>17.49543010625163</v>
       </c>
       <c r="G12">
-        <v>2.082226950144726</v>
+        <v>9.809742688990045</v>
       </c>
       <c r="H12">
-        <v>4.256818989312608</v>
+        <v>4.265784342408184</v>
       </c>
       <c r="I12">
-        <v>3.038816036931967</v>
+        <v>3.085651599346087</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.47587017461526</v>
+        <v>12.35912836192463</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.52263030022753</v>
       </c>
       <c r="M12">
-        <v>13.63706602601055</v>
+        <v>7.962856618659411</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.03128541301516</v>
+        <v>13.38046528385833</v>
       </c>
       <c r="P12">
-        <v>11.93197681148431</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.93136503635589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.89438653715835</v>
+      </c>
+      <c r="R12">
+        <v>11.88238627380481</v>
+      </c>
+      <c r="S12">
+        <v>13.49536241088633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.05262649194766</v>
+        <v>14.5603712030209</v>
       </c>
       <c r="C13">
-        <v>9.514293385126738</v>
+        <v>9.616207987295356</v>
       </c>
       <c r="D13">
-        <v>6.434781111163988</v>
+        <v>6.730859772393195</v>
       </c>
       <c r="E13">
-        <v>7.762842537746059</v>
+        <v>7.922659015126865</v>
       </c>
       <c r="F13">
-        <v>18.63147300775975</v>
+        <v>16.89038412115886</v>
       </c>
       <c r="G13">
-        <v>2.082921315459351</v>
+        <v>9.404123830568215</v>
       </c>
       <c r="H13">
-        <v>5.54278362645374</v>
+        <v>5.550780690673601</v>
       </c>
       <c r="I13">
-        <v>3.011570302549195</v>
+        <v>3.064764629436272</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.12545313691115</v>
+        <v>12.10590151087418</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.37276999830176</v>
       </c>
       <c r="M13">
-        <v>13.58580019227942</v>
+        <v>7.711633453228506</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.09316152037971</v>
+        <v>13.3461776359798</v>
       </c>
       <c r="P13">
-        <v>11.95208383537512</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.40935829877295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.96587474997781</v>
+      </c>
+      <c r="R13">
+        <v>11.93294063984922</v>
+      </c>
+      <c r="S13">
+        <v>13.07396223227951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.94660492054725</v>
+        <v>14.51155040300402</v>
       </c>
       <c r="C14">
-        <v>9.376685090365887</v>
+        <v>9.504233601073507</v>
       </c>
       <c r="D14">
-        <v>6.495104047714205</v>
+        <v>6.751939447579296</v>
       </c>
       <c r="E14">
-        <v>6.418486208098479</v>
+        <v>6.556500573341043</v>
       </c>
       <c r="F14">
-        <v>18.07593046917725</v>
+        <v>16.53426216852301</v>
       </c>
       <c r="G14">
-        <v>2.083839452778613</v>
+        <v>8.114152909017095</v>
       </c>
       <c r="H14">
-        <v>6.477973406757701</v>
+        <v>6.486459666021736</v>
       </c>
       <c r="I14">
-        <v>2.976447001912862</v>
+        <v>3.039827421741513</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.89547233435282</v>
+        <v>11.99048959183897</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.31679714074443</v>
       </c>
       <c r="M14">
-        <v>13.46901551091877</v>
+        <v>7.566770262699101</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.68845296533766</v>
+        <v>13.27486523144163</v>
       </c>
       <c r="P14">
-        <v>11.99454073352975</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.03694781977351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.58393317329301</v>
+      </c>
+      <c r="R14">
+        <v>11.98150618298259</v>
+      </c>
+      <c r="S14">
+        <v>12.85790587646821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.86878860919289</v>
+        <v>14.46026971947657</v>
       </c>
       <c r="C15">
-        <v>9.325317546797999</v>
+        <v>9.477566648135474</v>
       </c>
       <c r="D15">
-        <v>6.496769779140298</v>
+        <v>6.731292285227666</v>
       </c>
       <c r="E15">
-        <v>6.249278802522273</v>
+        <v>6.383533952719851</v>
       </c>
       <c r="F15">
-        <v>17.9127555922765</v>
+        <v>16.47191145582736</v>
       </c>
       <c r="G15">
-        <v>2.084291935685975</v>
+        <v>7.374927885347274</v>
       </c>
       <c r="H15">
-        <v>6.691811723407088</v>
+        <v>6.700842717832785</v>
       </c>
       <c r="I15">
-        <v>2.960634600828808</v>
+        <v>3.029582523613357</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.8429942628572</v>
+        <v>11.98530779933389</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.3217326466911</v>
       </c>
       <c r="M15">
-        <v>13.40171310995751</v>
+        <v>7.541384795881186</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.326561722433157</v>
+        <v>13.23330597789475</v>
       </c>
       <c r="P15">
-        <v>12.01558917147235</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.94089043450447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.234168962161924</v>
+      </c>
+      <c r="R15">
+        <v>11.99766345415961</v>
+      </c>
+      <c r="S15">
+        <v>12.83560527425263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.40750607572624</v>
+        <v>14.10629882959425</v>
       </c>
       <c r="C16">
-        <v>9.088712656310308</v>
+        <v>9.392022898868245</v>
       </c>
       <c r="D16">
-        <v>6.350824497238127</v>
+        <v>6.478967342560058</v>
       </c>
       <c r="E16">
-        <v>6.245450421352506</v>
+        <v>6.418564024867443</v>
       </c>
       <c r="F16">
-        <v>17.74213365015798</v>
+        <v>16.73137888083646</v>
       </c>
       <c r="G16">
-        <v>2.086500930207477</v>
+        <v>4.024164297155053</v>
       </c>
       <c r="H16">
-        <v>6.436616789612907</v>
+        <v>6.442423272429336</v>
       </c>
       <c r="I16">
-        <v>2.87566629486515</v>
+        <v>2.969735306352931</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.92497659015158</v>
+        <v>12.2270108631547</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.52094240264673</v>
       </c>
       <c r="M16">
-        <v>13.02851062306817</v>
+        <v>7.654541107524136</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.189303252304661</v>
+        <v>12.98341618293715</v>
       </c>
       <c r="P16">
-        <v>12.10434473804807</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.9511201136282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.151159807492935</v>
+      </c>
+      <c r="R16">
+        <v>12.0369027212663</v>
+      </c>
+      <c r="S16">
+        <v>13.1405304602856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.10374364883626</v>
+        <v>13.84371909199482</v>
       </c>
       <c r="C17">
-        <v>8.981077415927228</v>
+        <v>9.363356173168796</v>
       </c>
       <c r="D17">
-        <v>6.203903299076656</v>
+        <v>6.28526367177107</v>
       </c>
       <c r="E17">
-        <v>6.772350907074475</v>
+        <v>6.963050852967509</v>
       </c>
       <c r="F17">
-        <v>17.91455310478767</v>
+        <v>17.07202582378079</v>
       </c>
       <c r="G17">
-        <v>2.08772075619897</v>
+        <v>2.88088837210333</v>
       </c>
       <c r="H17">
-        <v>5.682510256526176</v>
+        <v>5.699590813696206</v>
       </c>
       <c r="I17">
-        <v>2.828998628850342</v>
+        <v>2.93602870751354</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.10876038405439</v>
+        <v>12.45966675784361</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.7050801089812</v>
       </c>
       <c r="M17">
-        <v>12.80104382688447</v>
+        <v>7.79796046544739</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.856406268585934</v>
+        <v>12.81110966621468</v>
       </c>
       <c r="P17">
-        <v>12.15080856770129</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.15842574808872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.841926326633937</v>
+      </c>
+      <c r="R17">
+        <v>12.05470717005726</v>
+      </c>
+      <c r="S17">
+        <v>13.458005273532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.91988613651919</v>
+        <v>13.66197474966492</v>
       </c>
       <c r="C18">
-        <v>8.959160980777307</v>
+        <v>9.400308012080728</v>
       </c>
       <c r="D18">
-        <v>6.038722652092942</v>
+        <v>6.102004328617083</v>
       </c>
       <c r="E18">
-        <v>8.718104921414533</v>
+        <v>8.886319683294392</v>
       </c>
       <c r="F18">
-        <v>18.41218604975675</v>
+        <v>17.61608642516473</v>
       </c>
       <c r="G18">
-        <v>2.088146886461455</v>
+        <v>2.546639393404565</v>
       </c>
       <c r="H18">
-        <v>4.474058192571278</v>
+        <v>4.497241739036117</v>
       </c>
       <c r="I18">
-        <v>2.808156176324849</v>
+        <v>2.919167306556437</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.41426365472874</v>
+        <v>12.75727690896501</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.9267478312753</v>
       </c>
       <c r="M18">
-        <v>12.67948263062647</v>
+        <v>8.021126827364464</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.31859225002959</v>
+        <v>12.7124353042113</v>
       </c>
       <c r="P18">
-        <v>12.1736602627186</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.56822788603369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.31459240406774</v>
+      </c>
+      <c r="R18">
+        <v>12.0560781742721</v>
+      </c>
+      <c r="S18">
+        <v>13.89292990971399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.82529456218357</v>
+        <v>13.54444916852039</v>
       </c>
       <c r="C19">
-        <v>9.048791594928941</v>
+        <v>9.543884100808492</v>
       </c>
       <c r="D19">
-        <v>5.881797880734238</v>
+        <v>5.943808922111134</v>
       </c>
       <c r="E19">
-        <v>12.152784182677</v>
+        <v>12.28562683548611</v>
       </c>
       <c r="F19">
-        <v>19.09077376301591</v>
+        <v>18.27477163845992</v>
       </c>
       <c r="G19">
-        <v>2.08784789763655</v>
+        <v>2.428804709428541</v>
       </c>
       <c r="H19">
-        <v>3.142442920285533</v>
+        <v>3.176907498435067</v>
       </c>
       <c r="I19">
-        <v>2.8212256639812</v>
+        <v>2.931045054189306</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.7745498497291</v>
+        <v>13.07832167718157</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.15650482062667</v>
       </c>
       <c r="M19">
-        <v>12.65400192166972</v>
+        <v>8.284772366002887</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.31424549496053</v>
+        <v>12.69105806279488</v>
       </c>
       <c r="P19">
-        <v>12.18688500466401</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.08458977694986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.3134574497965</v>
+      </c>
+      <c r="R19">
+        <v>12.05148452633589</v>
+      </c>
+      <c r="S19">
+        <v>14.38858317313609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.03258425179635</v>
+        <v>13.66397148727826</v>
       </c>
       <c r="C20">
-        <v>9.37334013028169</v>
+        <v>9.909345413196625</v>
       </c>
       <c r="D20">
-        <v>5.744253125519926</v>
+        <v>5.845560242198888</v>
       </c>
       <c r="E20">
-        <v>18.16741070065299</v>
+        <v>18.27098865878813</v>
       </c>
       <c r="F20">
-        <v>20.3022068174808</v>
+        <v>19.29271531098395</v>
       </c>
       <c r="G20">
-        <v>2.085500499886384</v>
+        <v>2.754985527969809</v>
       </c>
       <c r="H20">
-        <v>2.286414863460809</v>
+        <v>2.330749975876587</v>
       </c>
       <c r="I20">
-        <v>2.912428386990475</v>
+        <v>3.003061942472737</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.32136651285797</v>
+        <v>13.4890740169883</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.40363123707021</v>
       </c>
       <c r="M20">
-        <v>12.90056944392902</v>
+        <v>8.70445246250619</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.59853228390496</v>
+        <v>12.89422516860909</v>
       </c>
       <c r="P20">
-        <v>12.16295361001514</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.92474551539728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.58059039889777</v>
+      </c>
+      <c r="R20">
+        <v>12.00647819894312</v>
+      </c>
+      <c r="S20">
+        <v>15.07865259200728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.85110726459231</v>
+        <v>14.25852574936789</v>
       </c>
       <c r="C21">
-        <v>9.865268874658897</v>
+        <v>10.09984718850673</v>
       </c>
       <c r="D21">
-        <v>5.941756806551433</v>
+        <v>6.244298371863062</v>
       </c>
       <c r="E21">
-        <v>19.59900552938123</v>
+        <v>19.76244964025506</v>
       </c>
       <c r="F21">
-        <v>20.96342793797396</v>
+        <v>19.01585627131098</v>
       </c>
       <c r="G21">
-        <v>2.081176733640782</v>
+        <v>9.555425203110349</v>
       </c>
       <c r="H21">
-        <v>2.539472967284466</v>
+        <v>2.552377859876763</v>
       </c>
       <c r="I21">
-        <v>3.081417515383811</v>
+        <v>3.121047678849334</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.38528019030702</v>
+        <v>13.10440648910513</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.01370667688228</v>
       </c>
       <c r="M21">
-        <v>13.5880597182913</v>
+        <v>8.610013421702416</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.71937051912364</v>
+        <v>13.33245327021847</v>
       </c>
       <c r="P21">
-        <v>11.98807033383878</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.20008456158415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.58153112649328</v>
+      </c>
+      <c r="R21">
+        <v>11.84000408349653</v>
+      </c>
+      <c r="S21">
+        <v>14.64402335515767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.3780259027838</v>
+        <v>14.63932175240441</v>
       </c>
       <c r="C22">
-        <v>10.14589844778002</v>
+        <v>10.17159326404995</v>
       </c>
       <c r="D22">
-        <v>6.07207585098226</v>
+        <v>6.513988644758757</v>
       </c>
       <c r="E22">
-        <v>20.22948826697024</v>
+        <v>20.43980016988577</v>
       </c>
       <c r="F22">
-        <v>21.36961861052166</v>
+        <v>18.76648701977335</v>
       </c>
       <c r="G22">
-        <v>2.078444065667139</v>
+        <v>14.58746301220406</v>
       </c>
       <c r="H22">
-        <v>2.6904424718892</v>
+        <v>2.683921164789373</v>
       </c>
       <c r="I22">
-        <v>3.184015442174736</v>
+        <v>3.19093579019383</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.42414511283369</v>
+        <v>12.82762497873308</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.75870555671498</v>
       </c>
       <c r="M22">
-        <v>14.01829938737907</v>
+        <v>8.524046009203005</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.28598009151628</v>
+        <v>13.59526638403443</v>
       </c>
       <c r="P22">
-        <v>11.87390042119166</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.36539681237208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.06649459203639</v>
+      </c>
+      <c r="R22">
+        <v>11.7409969021418</v>
+      </c>
+      <c r="S22">
+        <v>14.3079357611713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.11328340376836</v>
+        <v>14.46867484025465</v>
       </c>
       <c r="C23">
-        <v>9.974570564946639</v>
+        <v>10.15109382798461</v>
       </c>
       <c r="D23">
-        <v>5.998898072216069</v>
+        <v>6.34717454648894</v>
       </c>
       <c r="E23">
-        <v>19.89580114564474</v>
+        <v>20.0707519462444</v>
       </c>
       <c r="F23">
-        <v>21.17508793655426</v>
+        <v>19.01977530115305</v>
       </c>
       <c r="G23">
-        <v>2.079879993006374</v>
+        <v>11.08494757942034</v>
       </c>
       <c r="H23">
-        <v>2.61064087716863</v>
+        <v>2.615685700206523</v>
       </c>
       <c r="I23">
-        <v>3.125532683246607</v>
+        <v>3.150304365408025</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.42161243046669</v>
+        <v>13.03617459220296</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.93125487017988</v>
       </c>
       <c r="M23">
-        <v>13.79096112727349</v>
+        <v>8.625660835535417</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.98603095642756</v>
+        <v>13.48131304987493</v>
       </c>
       <c r="P23">
-        <v>11.93616503550167</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.29413838880267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.82239705770041</v>
+      </c>
+      <c r="R23">
+        <v>11.79322761545395</v>
+      </c>
+      <c r="S23">
+        <v>14.57852477498881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.0388766114835</v>
+        <v>13.66899954672899</v>
       </c>
       <c r="C24">
-        <v>9.342184772498538</v>
+        <v>9.884070473815406</v>
       </c>
       <c r="D24">
-        <v>5.719630202271713</v>
+        <v>5.81914365188239</v>
       </c>
       <c r="E24">
-        <v>18.57992221430723</v>
+        <v>18.68157254834874</v>
       </c>
       <c r="F24">
-        <v>20.4045536112214</v>
+        <v>19.39869721411788</v>
       </c>
       <c r="G24">
-        <v>2.085453065625551</v>
+        <v>2.702059347303447</v>
       </c>
       <c r="H24">
-        <v>2.300935776056879</v>
+        <v>2.345364628000711</v>
       </c>
       <c r="I24">
-        <v>2.906193331786097</v>
+        <v>2.994933315514084</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.39098274613459</v>
+        <v>13.55542002133173</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.45192663963852</v>
       </c>
       <c r="M24">
-        <v>12.89294509618115</v>
+        <v>8.757524889453451</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.80385798068766</v>
+        <v>12.88844964614932</v>
       </c>
       <c r="P24">
-        <v>12.17152407161225</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.00660426630782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.78696698778498</v>
+      </c>
+      <c r="R24">
+        <v>12.01154539239579</v>
+      </c>
+      <c r="S24">
+        <v>15.16223876230829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.77451285318581</v>
+        <v>12.52159397602559</v>
       </c>
       <c r="C25">
-        <v>8.618851353677517</v>
+        <v>9.085768914351766</v>
       </c>
       <c r="D25">
-        <v>5.400556326652473</v>
+        <v>5.435212025067549</v>
       </c>
       <c r="E25">
-        <v>17.05126773998039</v>
+        <v>17.18535093506856</v>
       </c>
       <c r="F25">
-        <v>19.58152729020143</v>
+        <v>18.71791818160571</v>
       </c>
       <c r="G25">
-        <v>2.091703277688448</v>
+        <v>2.977433391461896</v>
       </c>
       <c r="H25">
-        <v>1.951934144138797</v>
+        <v>2.021043118673629</v>
       </c>
       <c r="I25">
-        <v>2.662050012710247</v>
+        <v>2.796219237490043</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.37707501369061</v>
+        <v>13.62285670200125</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.70504358097815</v>
       </c>
       <c r="M25">
-        <v>11.84783045657742</v>
+        <v>8.500681301229671</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.4324815445629</v>
+        <v>11.89921900802582</v>
       </c>
       <c r="P25">
-        <v>12.42968336649185</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.71913659643977</v>
+        <v>15.43492759404796</v>
+      </c>
+      <c r="R25">
+        <v>12.23817654539078</v>
+      </c>
+      <c r="S25">
+        <v>14.96980096255796</v>
       </c>
     </row>
   </sheetData>
